--- a/inputXls/Resultexams.xlsx
+++ b/inputXls/Resultexams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE33C86-CFCA-4470-B944-83EA46A3A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A40D7-D702-4887-B849-B1AD826F2F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{33660184-E9A4-4D3F-9786-E8AB5598DBA8}"/>
+    <workbookView xWindow="9600" yWindow="3435" windowWidth="28800" windowHeight="11295" xr2:uid="{33660184-E9A4-4D3F-9786-E8AB5598DBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB669EEF-67B8-4748-9DAE-E966454B72B3}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C564"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +423,7325 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,27)</f>
+        <v>12</v>
+      </c>
+      <c r="C2" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(1,27)</f>
+        <v>17</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" ca="1" si="1">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" ca="1" si="2">RANDBETWEEN(1,27)</f>
+        <v>14</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C130" ca="1" si="3">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B194" ca="1" si="4">RANDBETWEEN(1,27)</f>
+        <v>11</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C194" ca="1" si="5">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>5</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>5</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>5</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>5</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>5</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>5</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ref="B195:B258" ca="1" si="6">RANDBETWEEN(1,27)</f>
+        <v>26</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C258" ca="1" si="7">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>5</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5</v>
+      </c>
+      <c r="B199">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>5</v>
+      </c>
+      <c r="B201">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>5</v>
+      </c>
+      <c r="B203">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>5</v>
+      </c>
+      <c r="B208">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>5</v>
+      </c>
+      <c r="B209">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>5</v>
+      </c>
+      <c r="B211">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>5</v>
+      </c>
+      <c r="B212">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="B213">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5</v>
+      </c>
+      <c r="B215">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="B216">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>5</v>
+      </c>
+      <c r="B217">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>5</v>
+      </c>
+      <c r="B221">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>5</v>
+      </c>
+      <c r="B223">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>5</v>
+      </c>
+      <c r="B225">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>5</v>
+      </c>
+      <c r="B229">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>5</v>
+      </c>
+      <c r="B232">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>5</v>
+      </c>
+      <c r="B233">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>6</v>
+      </c>
+      <c r="B236">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>6</v>
+      </c>
+      <c r="B237">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>6</v>
+      </c>
+      <c r="B238">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>6</v>
+      </c>
+      <c r="B239">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>6</v>
+      </c>
+      <c r="B240">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>6</v>
+      </c>
+      <c r="B241">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>6</v>
+      </c>
+      <c r="B242">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>6</v>
+      </c>
+      <c r="B243">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>6</v>
+      </c>
+      <c r="B244">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>6</v>
+      </c>
+      <c r="B245">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>6</v>
+      </c>
+      <c r="B246">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>6</v>
+      </c>
+      <c r="B248">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>6</v>
+      </c>
+      <c r="B249">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>6</v>
+      </c>
+      <c r="B250">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>6</v>
+      </c>
+      <c r="B251">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>6</v>
+      </c>
+      <c r="B252">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>6</v>
+      </c>
+      <c r="B253">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>6</v>
+      </c>
+      <c r="B254">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>6</v>
+      </c>
+      <c r="B255">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>6</v>
+      </c>
+      <c r="B256">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>6</v>
+      </c>
+      <c r="B257">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>6</v>
+      </c>
+      <c r="B258">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>6</v>
+      </c>
+      <c r="B259">
+        <f t="shared" ref="B259:B322" ca="1" si="8">RANDBETWEEN(1,27)</f>
+        <v>2</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" ref="C259:C322" ca="1" si="9">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>6</v>
+      </c>
+      <c r="B260">
+        <f t="shared" ca="1" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>6</v>
+      </c>
+      <c r="B261">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>6</v>
+      </c>
+      <c r="B262">
+        <f t="shared" ca="1" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>6</v>
+      </c>
+      <c r="B263">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>6</v>
+      </c>
+      <c r="B265">
+        <f t="shared" ca="1" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>6</v>
+      </c>
+      <c r="B266">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>6</v>
+      </c>
+      <c r="B267">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>6</v>
+      </c>
+      <c r="B268">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>6</v>
+      </c>
+      <c r="B269">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>6</v>
+      </c>
+      <c r="B270">
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>6</v>
+      </c>
+      <c r="B271">
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="C271" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>6</v>
+      </c>
+      <c r="B272">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="C272" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>6</v>
+      </c>
+      <c r="B273">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274">
+        <f t="shared" ca="1" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>6</v>
+      </c>
+      <c r="B275">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>6</v>
+      </c>
+      <c r="B276">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>6</v>
+      </c>
+      <c r="B278">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>6</v>
+      </c>
+      <c r="B280">
+        <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>6</v>
+      </c>
+      <c r="B281">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>6</v>
+      </c>
+      <c r="B282">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>7</v>
+      </c>
+      <c r="B283">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>7</v>
+      </c>
+      <c r="B284">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>7</v>
+      </c>
+      <c r="B285">
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>7</v>
+      </c>
+      <c r="B286">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>7</v>
+      </c>
+      <c r="B287">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>7</v>
+      </c>
+      <c r="B288">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <f t="shared" ca="1" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>7</v>
+      </c>
+      <c r="B290">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>7</v>
+      </c>
+      <c r="B291">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>7</v>
+      </c>
+      <c r="B292">
+        <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>7</v>
+      </c>
+      <c r="B293">
+        <f t="shared" ca="1" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>7</v>
+      </c>
+      <c r="B294">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>7</v>
+      </c>
+      <c r="B295">
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>7</v>
+      </c>
+      <c r="B296">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>7</v>
+      </c>
+      <c r="B297">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>7</v>
+      </c>
+      <c r="B298">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>7</v>
+      </c>
+      <c r="B299">
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>7</v>
+      </c>
+      <c r="B300">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>7</v>
+      </c>
+      <c r="B301">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>7</v>
+      </c>
+      <c r="B302">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>7</v>
+      </c>
+      <c r="B303">
+        <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>7</v>
+      </c>
+      <c r="B304">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>7</v>
+      </c>
+      <c r="B305">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>7</v>
+      </c>
+      <c r="B306">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>7</v>
+      </c>
+      <c r="B307">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>7</v>
+      </c>
+      <c r="B308">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>7</v>
+      </c>
+      <c r="B309">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>7</v>
+      </c>
+      <c r="B310">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>7</v>
+      </c>
+      <c r="B311">
+        <f t="shared" ca="1" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>7</v>
+      </c>
+      <c r="B312">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>7</v>
+      </c>
+      <c r="B313">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>7</v>
+      </c>
+      <c r="B314">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>7</v>
+      </c>
+      <c r="B315">
+        <f t="shared" ca="1" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>7</v>
+      </c>
+      <c r="B316">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>7</v>
+      </c>
+      <c r="B317">
+        <f t="shared" ca="1" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>7</v>
+      </c>
+      <c r="B318">
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>7</v>
+      </c>
+      <c r="B319">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>7</v>
+      </c>
+      <c r="B320">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>7</v>
+      </c>
+      <c r="B321">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="C321" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>7</v>
+      </c>
+      <c r="B322">
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="C322" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>7</v>
+      </c>
+      <c r="B323">
+        <f t="shared" ref="B323:B386" ca="1" si="10">RANDBETWEEN(1,27)</f>
+        <v>4</v>
+      </c>
+      <c r="C323" t="str">
+        <f t="shared" ref="C323:C386" ca="1" si="11">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>7</v>
+      </c>
+      <c r="B324">
+        <f t="shared" ca="1" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="C324" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>7</v>
+      </c>
+      <c r="B325">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="C325" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>7</v>
+      </c>
+      <c r="B326">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="C326" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>7</v>
+      </c>
+      <c r="B327">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="C327" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328">
+        <f t="shared" ca="1" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>8</v>
+      </c>
+      <c r="B330">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>8</v>
+      </c>
+      <c r="B331">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>8</v>
+      </c>
+      <c r="B332">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>8</v>
+      </c>
+      <c r="B333">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>8</v>
+      </c>
+      <c r="B334">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>8</v>
+      </c>
+      <c r="B335">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>8</v>
+      </c>
+      <c r="B336">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>8</v>
+      </c>
+      <c r="B337">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>8</v>
+      </c>
+      <c r="B338">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>8</v>
+      </c>
+      <c r="B339">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>8</v>
+      </c>
+      <c r="B340">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>8</v>
+      </c>
+      <c r="B341">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>8</v>
+      </c>
+      <c r="B342">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>8</v>
+      </c>
+      <c r="B343">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>8</v>
+      </c>
+      <c r="B344">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>8</v>
+      </c>
+      <c r="B345">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>8</v>
+      </c>
+      <c r="B346">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>8</v>
+      </c>
+      <c r="B347">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>8</v>
+      </c>
+      <c r="B348">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>8</v>
+      </c>
+      <c r="B349">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>8</v>
+      </c>
+      <c r="B350">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>8</v>
+      </c>
+      <c r="B351">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>8</v>
+      </c>
+      <c r="B352">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>8</v>
+      </c>
+      <c r="B353">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>8</v>
+      </c>
+      <c r="B354">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>8</v>
+      </c>
+      <c r="B355">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>8</v>
+      </c>
+      <c r="B356">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>8</v>
+      </c>
+      <c r="B357">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>8</v>
+      </c>
+      <c r="B358">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>8</v>
+      </c>
+      <c r="B359">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>8</v>
+      </c>
+      <c r="B360">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>8</v>
+      </c>
+      <c r="B361">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>8</v>
+      </c>
+      <c r="B362">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>8</v>
+      </c>
+      <c r="B363">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>8</v>
+      </c>
+      <c r="B364">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>8</v>
+      </c>
+      <c r="B365">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>8</v>
+      </c>
+      <c r="B366">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>8</v>
+      </c>
+      <c r="B367">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>8</v>
+      </c>
+      <c r="B368">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>8</v>
+      </c>
+      <c r="B369">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>8</v>
+      </c>
+      <c r="B370">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>8</v>
+      </c>
+      <c r="B371">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>8</v>
+      </c>
+      <c r="B372">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>8</v>
+      </c>
+      <c r="B373">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>8</v>
+      </c>
+      <c r="B374">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>8</v>
+      </c>
+      <c r="B375">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>8</v>
+      </c>
+      <c r="B376">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>9</v>
+      </c>
+      <c r="B377">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>9</v>
+      </c>
+      <c r="B378">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>9</v>
+      </c>
+      <c r="B379">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>9</v>
+      </c>
+      <c r="B380">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>9</v>
+      </c>
+      <c r="B381">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>9</v>
+      </c>
+      <c r="B382">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>9</v>
+      </c>
+      <c r="B383">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>9</v>
+      </c>
+      <c r="B384">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>9</v>
+      </c>
+      <c r="B385">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>9</v>
+      </c>
+      <c r="B386">
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>9</v>
+      </c>
+      <c r="B387">
+        <f t="shared" ref="B387:B450" ca="1" si="12">RANDBETWEEN(1,27)</f>
+        <v>14</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" ref="C387:C450" ca="1" si="13">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>9</v>
+      </c>
+      <c r="B388">
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>9</v>
+      </c>
+      <c r="B389">
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>9</v>
+      </c>
+      <c r="B390">
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>9</v>
+      </c>
+      <c r="B391">
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>9</v>
+      </c>
+      <c r="B392">
+        <f t="shared" ca="1" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>9</v>
+      </c>
+      <c r="B393">
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>9</v>
+      </c>
+      <c r="B394">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>9</v>
+      </c>
+      <c r="B395">
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>9</v>
+      </c>
+      <c r="B396">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>9</v>
+      </c>
+      <c r="B397">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>9</v>
+      </c>
+      <c r="B398">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>9</v>
+      </c>
+      <c r="B399">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>9</v>
+      </c>
+      <c r="B400">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>9</v>
+      </c>
+      <c r="B401">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>9</v>
+      </c>
+      <c r="B402">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>9</v>
+      </c>
+      <c r="B403">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>9</v>
+      </c>
+      <c r="B404">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>9</v>
+      </c>
+      <c r="B405">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>9</v>
+      </c>
+      <c r="B406">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="C406" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>9</v>
+      </c>
+      <c r="B407">
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C407" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>9</v>
+      </c>
+      <c r="B408">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>9</v>
+      </c>
+      <c r="B409">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="C409" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>9</v>
+      </c>
+      <c r="B410">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="C410" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>9</v>
+      </c>
+      <c r="B411">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="C411" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>9</v>
+      </c>
+      <c r="B412">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="C412" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>9</v>
+      </c>
+      <c r="B413">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C413" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>9</v>
+      </c>
+      <c r="B414">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C414" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>9</v>
+      </c>
+      <c r="B415">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="C415" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>9</v>
+      </c>
+      <c r="B416">
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="C416" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>9</v>
+      </c>
+      <c r="B417">
+        <f t="shared" ca="1" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="C417" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>9</v>
+      </c>
+      <c r="B418">
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>9</v>
+      </c>
+      <c r="B419">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>9</v>
+      </c>
+      <c r="B420">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>9</v>
+      </c>
+      <c r="B421">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>9</v>
+      </c>
+      <c r="B422">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>9</v>
+      </c>
+      <c r="B423">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>10</v>
+      </c>
+      <c r="B424">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C424" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>10</v>
+      </c>
+      <c r="B425">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="C425" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>10</v>
+      </c>
+      <c r="B426">
+        <f t="shared" ca="1" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="C426" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>10</v>
+      </c>
+      <c r="B427">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C427" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>10</v>
+      </c>
+      <c r="B428">
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="C428" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>10</v>
+      </c>
+      <c r="B429">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="C429" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>10</v>
+      </c>
+      <c r="B430">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C430" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>10</v>
+      </c>
+      <c r="B431">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="C431" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>10</v>
+      </c>
+      <c r="B432">
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="C432" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>10</v>
+      </c>
+      <c r="B433">
+        <f t="shared" ca="1" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="C433" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>10</v>
+      </c>
+      <c r="B434">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C434" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>10</v>
+      </c>
+      <c r="B435">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="C435" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>10</v>
+      </c>
+      <c r="B436">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="C436" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>10</v>
+      </c>
+      <c r="B437">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="C437" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>10</v>
+      </c>
+      <c r="B438">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C438" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>10</v>
+      </c>
+      <c r="B439">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C439" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>10</v>
+      </c>
+      <c r="B440">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="C440" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>10</v>
+      </c>
+      <c r="B441">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="C441" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>10</v>
+      </c>
+      <c r="B442">
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="C442" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>10</v>
+      </c>
+      <c r="B443">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="C443" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>10</v>
+      </c>
+      <c r="B444">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="C444" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>10</v>
+      </c>
+      <c r="B445">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C445" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>10</v>
+      </c>
+      <c r="B446">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="C446" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>10</v>
+      </c>
+      <c r="B447">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C447" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>10</v>
+      </c>
+      <c r="B448">
+        <f t="shared" ca="1" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="C448" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>10</v>
+      </c>
+      <c r="B449">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="C449" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>10</v>
+      </c>
+      <c r="B450">
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="C450" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>10</v>
+      </c>
+      <c r="B451">
+        <f t="shared" ref="B451:B514" ca="1" si="14">RANDBETWEEN(1,27)</f>
+        <v>6</v>
+      </c>
+      <c r="C451" t="str">
+        <f t="shared" ref="C451:C514" ca="1" si="15">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>10</v>
+      </c>
+      <c r="B452">
+        <f t="shared" ca="1" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="C452" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>10</v>
+      </c>
+      <c r="B453">
+        <f t="shared" ca="1" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="C453" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>10</v>
+      </c>
+      <c r="B454">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C454" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>10</v>
+      </c>
+      <c r="B455">
+        <f t="shared" ca="1" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="C455" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>10</v>
+      </c>
+      <c r="B456">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C456" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>10</v>
+      </c>
+      <c r="B457">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C457" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>10</v>
+      </c>
+      <c r="B458">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C458" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>10</v>
+      </c>
+      <c r="B459">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="C459" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>10</v>
+      </c>
+      <c r="B460">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C460" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>10</v>
+      </c>
+      <c r="B461">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="C461" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>10</v>
+      </c>
+      <c r="B462">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C462" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>10</v>
+      </c>
+      <c r="B463">
+        <f t="shared" ca="1" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="C463" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>10</v>
+      </c>
+      <c r="B464">
+        <f t="shared" ca="1" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C464" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>10</v>
+      </c>
+      <c r="B465">
+        <f t="shared" ca="1" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C465" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>10</v>
+      </c>
+      <c r="B466">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="C466" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>10</v>
+      </c>
+      <c r="B467">
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C467" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>10</v>
+      </c>
+      <c r="B468">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="C468" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>10</v>
+      </c>
+      <c r="B469">
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="C469" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>10</v>
+      </c>
+      <c r="B470">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="C470" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>11</v>
+      </c>
+      <c r="B471">
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="C471" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>11</v>
+      </c>
+      <c r="B472">
+        <f t="shared" ca="1" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C472" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>11</v>
+      </c>
+      <c r="B473">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C473" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>11</v>
+      </c>
+      <c r="B474">
+        <f t="shared" ca="1" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="C474" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>11</v>
+      </c>
+      <c r="B475">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="C475" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>11</v>
+      </c>
+      <c r="B476">
+        <f t="shared" ca="1" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="C476" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>11</v>
+      </c>
+      <c r="B477">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="C477" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>11</v>
+      </c>
+      <c r="B478">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C478" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>11</v>
+      </c>
+      <c r="B479">
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C479" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>11</v>
+      </c>
+      <c r="B480">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="C480" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>11</v>
+      </c>
+      <c r="B481">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C481" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>11</v>
+      </c>
+      <c r="B482">
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C482" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>11</v>
+      </c>
+      <c r="B483">
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C483" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>11</v>
+      </c>
+      <c r="B484">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="C484" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>11</v>
+      </c>
+      <c r="B485">
+        <f t="shared" ca="1" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="C485" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>11</v>
+      </c>
+      <c r="B486">
+        <f t="shared" ca="1" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C486" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>11</v>
+      </c>
+      <c r="B487">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="C487" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>11</v>
+      </c>
+      <c r="B488">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C488" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>11</v>
+      </c>
+      <c r="B489">
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C489" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>11</v>
+      </c>
+      <c r="B490">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C490" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>11</v>
+      </c>
+      <c r="B491">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="C491" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>11</v>
+      </c>
+      <c r="B492">
+        <f t="shared" ca="1" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="C492" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>11</v>
+      </c>
+      <c r="B493">
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="C493" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>11</v>
+      </c>
+      <c r="B494">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="C494" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>11</v>
+      </c>
+      <c r="B495">
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C495" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>11</v>
+      </c>
+      <c r="B496">
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C496" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>11</v>
+      </c>
+      <c r="B497">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C497" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>11</v>
+      </c>
+      <c r="B498">
+        <f t="shared" ca="1" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="C498" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>11</v>
+      </c>
+      <c r="B499">
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C499" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>11</v>
+      </c>
+      <c r="B500">
+        <f t="shared" ca="1" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="C500" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>11</v>
+      </c>
+      <c r="B501">
+        <f t="shared" ca="1" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C501" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>11</v>
+      </c>
+      <c r="B502">
+        <f t="shared" ca="1" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="C502" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>11</v>
+      </c>
+      <c r="B503">
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="C503" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>11</v>
+      </c>
+      <c r="B504">
+        <f t="shared" ca="1" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="C504" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>11</v>
+      </c>
+      <c r="B505">
+        <f t="shared" ca="1" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="C505" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>11</v>
+      </c>
+      <c r="B506">
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="C506" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>11</v>
+      </c>
+      <c r="B507">
+        <f t="shared" ca="1" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="C507" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>11</v>
+      </c>
+      <c r="B508">
+        <f t="shared" ca="1" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="C508" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>11</v>
+      </c>
+      <c r="B509">
+        <f t="shared" ca="1" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C509" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>11</v>
+      </c>
+      <c r="B510">
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="C510" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>11</v>
+      </c>
+      <c r="B511">
+        <f t="shared" ca="1" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="C511" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>11</v>
+      </c>
+      <c r="B512">
+        <f t="shared" ca="1" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="C512" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>11</v>
+      </c>
+      <c r="B513">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C513" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>11</v>
+      </c>
+      <c r="B514">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C514" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>11</v>
+      </c>
+      <c r="B515">
+        <f t="shared" ref="B515:B564" ca="1" si="16">RANDBETWEEN(1,27)</f>
+        <v>2</v>
+      </c>
+      <c r="C515" t="str">
+        <f t="shared" ref="C515:C564" ca="1" si="17">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>11</v>
+      </c>
+      <c r="B516">
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="C516" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>11</v>
+      </c>
+      <c r="B517">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C517" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>12</v>
+      </c>
+      <c r="B518">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="C518" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>12</v>
+      </c>
+      <c r="B519">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="C519" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>12</v>
+      </c>
+      <c r="B520">
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="C520" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>12</v>
+      </c>
+      <c r="B521">
+        <f t="shared" ca="1" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="C521" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>12</v>
+      </c>
+      <c r="B522">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="C522" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>12</v>
+      </c>
+      <c r="B523">
+        <f t="shared" ca="1" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="C523" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>12</v>
+      </c>
+      <c r="B524">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C524" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>12</v>
+      </c>
+      <c r="B525">
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="C525" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>12</v>
+      </c>
+      <c r="B526">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="C526" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>12</v>
+      </c>
+      <c r="B527">
+        <f t="shared" ca="1" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="C527" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>12</v>
+      </c>
+      <c r="B528">
+        <f t="shared" ca="1" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="C528" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>12</v>
+      </c>
+      <c r="B529">
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="C529" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>12</v>
+      </c>
+      <c r="B530">
+        <f t="shared" ca="1" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="C530" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>12</v>
+      </c>
+      <c r="B531">
+        <f t="shared" ca="1" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="C531" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>12</v>
+      </c>
+      <c r="B532">
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="C532" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>12</v>
+      </c>
+      <c r="B533">
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="C533" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>12</v>
+      </c>
+      <c r="B534">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="C534" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>12</v>
+      </c>
+      <c r="B535">
+        <f t="shared" ca="1" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="C535" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>12</v>
+      </c>
+      <c r="B536">
+        <f t="shared" ca="1" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="C536" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>12</v>
+      </c>
+      <c r="B537">
+        <f t="shared" ca="1" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C537" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>12</v>
+      </c>
+      <c r="B538">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="C538" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>12</v>
+      </c>
+      <c r="B539">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C539" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>12</v>
+      </c>
+      <c r="B540">
+        <f t="shared" ca="1" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="C540" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>12</v>
+      </c>
+      <c r="B541">
+        <f t="shared" ca="1" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="C541" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>12</v>
+      </c>
+      <c r="B542">
+        <f t="shared" ca="1" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="C542" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>12</v>
+      </c>
+      <c r="B543">
+        <f t="shared" ca="1" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="C543" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>12</v>
+      </c>
+      <c r="B544">
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="C544" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>12</v>
+      </c>
+      <c r="B545">
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="C545" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>12</v>
+      </c>
+      <c r="B546">
+        <f t="shared" ca="1" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="C546" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>12</v>
+      </c>
+      <c r="B547">
+        <f t="shared" ca="1" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="C547" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>12</v>
+      </c>
+      <c r="B548">
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="C548" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>12</v>
+      </c>
+      <c r="B549">
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="C549" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>12</v>
+      </c>
+      <c r="B550">
+        <f t="shared" ca="1" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="C550" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>12</v>
+      </c>
+      <c r="B551">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="C551" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>12</v>
+      </c>
+      <c r="B552">
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="C552" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>12</v>
+      </c>
+      <c r="B553">
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="C553" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>12</v>
+      </c>
+      <c r="B554">
+        <f t="shared" ca="1" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="C554" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>12</v>
+      </c>
+      <c r="B555">
+        <f t="shared" ca="1" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="C555" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>12</v>
+      </c>
+      <c r="B556">
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="C556" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>12</v>
+      </c>
+      <c r="B557">
+        <f t="shared" ca="1" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C557" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>12</v>
+      </c>
+      <c r="B558">
+        <f t="shared" ca="1" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="C558" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>12</v>
+      </c>
+      <c r="B559">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="C559" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>12</v>
+      </c>
+      <c r="B560">
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="C560" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>12</v>
+      </c>
+      <c r="B561">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="C561" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>12</v>
+      </c>
+      <c r="B562">
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="C562" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>12</v>
+      </c>
+      <c r="B563">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C563" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>12</v>
+      </c>
+      <c r="B564">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="C564" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>e</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
